--- a/doc/Normale.xlsx
+++ b/doc/Normale.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>DEPART</t>
   </si>
@@ -40,9 +40,6 @@
     <t>S.F</t>
   </si>
   <si>
-    <t>DUREE</t>
-  </si>
-  <si>
     <t>OBJET DE LA MISSION</t>
   </si>
   <si>
@@ -61,27 +58,9 @@
     <t>C-&gt; CELIBATAIRE</t>
   </si>
   <si>
-    <t>HEURE</t>
-  </si>
-  <si>
     <t>MLE</t>
   </si>
   <si>
-    <t>1°PERIODE</t>
-  </si>
-  <si>
-    <t>2°PERIODE</t>
-  </si>
-  <si>
-    <t>3°PERIODE</t>
-  </si>
-  <si>
-    <t>RETOUR</t>
-  </si>
-  <si>
-    <t>RETPOUR</t>
-  </si>
-  <si>
     <t>NBJ</t>
   </si>
   <si>
@@ -101,9 +80,6 @@
   </si>
   <si>
     <t>23H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUREE DE LA MISSION </t>
   </si>
   <si>
     <t xml:space="preserve">REF DE LA L'ORDRE </t>
@@ -138,6 +114,30 @@
       </rPr>
       <t xml:space="preserve"> PERSO.</t>
     </r>
+  </si>
+  <si>
+    <t>D-HEURE</t>
+  </si>
+  <si>
+    <t>A-HEURE</t>
+  </si>
+  <si>
+    <t>DEPART-1</t>
+  </si>
+  <si>
+    <t>RETOUR-1</t>
+  </si>
+  <si>
+    <t>DEPART-2</t>
+  </si>
+  <si>
+    <t>RETOUR-2</t>
+  </si>
+  <si>
+    <t>DEPART-3</t>
+  </si>
+  <si>
+    <t>RETPOUR-3</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -452,19 +452,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -472,30 +459,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -503,26 +466,13 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -571,6 +521,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,36 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,19 +868,19 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:6">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
@@ -1113,7 +1045,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="K2" sqref="K2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1124,73 +1056,89 @@
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="G2" s="19">
+        <v>44494</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="19">
+        <v>44497</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>10</v>
@@ -1199,126 +1147,126 @@
         <v>44494</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I3" s="19">
         <v>44497</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="19">
         <v>44494</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I4" s="19">
         <v>44497</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="19">
         <v>44494</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I5" s="19">
         <v>44497</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="19">
         <v>44494</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I6" s="19">
         <v>44497</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>10</v>
@@ -1327,199 +1275,157 @@
         <v>44494</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I7" s="19">
         <v>44497</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="19">
         <v>44494</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I8" s="19">
         <v>44497</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="19">
         <v>44494</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I9" s="19">
         <v>44497</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="19">
         <v>44494</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I10" s="19">
         <v>44497</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="19">
         <v>44494</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I11" s="19">
         <v>44497</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="19">
-        <v>44494</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="19">
-        <v>44497</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+    <row r="15" spans="1:12">
+      <c r="F15" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1">
       <c r="F16" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="24" customHeight="1">
-      <c r="F17" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="17" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1527,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:O15"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1543,88 +1449,173 @@
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16">
+        <v>4</v>
+      </c>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16">
+        <v>4</v>
+      </c>
+      <c r="O3" s="16"/>
+    </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="38" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="38" t="s">
+      <c r="D5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
+        <v>4</v>
+      </c>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -1642,16 +1633,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
@@ -1669,16 +1660,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
@@ -1690,22 +1681,22 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
@@ -1717,22 +1708,22 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
@@ -1744,22 +1735,22 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
@@ -1771,133 +1762,11 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="16">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16">
-        <v>6</v>
-      </c>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="16">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16">
-        <v>6</v>
-      </c>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="16">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16">
-        <v>6</v>
-      </c>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="16">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16">
-        <v>3</v>
-      </c>
-      <c r="O15" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1905,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1918,107 +1787,109 @@
     <col min="14" max="14" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>29</v>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18">
+        <v>281602</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="19">
+        <v>44494</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="19">
+        <v>44497</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="18">
-        <v>281602</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19">
-        <v>44494</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="19">
-        <v>44497</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="N3" s="21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2029,14 +1900,14 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -2047,14 +1918,14 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2065,7 +1936,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2083,14 +1954,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2101,14 +1972,14 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2119,14 +1990,14 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -2137,14 +2008,14 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -2162,7 +2033,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -2171,36 +2042,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="16">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>